--- a/test/data/CovidBoosterCampusesData.xlsx
+++ b/test/data/CovidBoosterCampusesData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -62,7 +62,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -346,7 +347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -359,13 +362,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>33124</v>
+      <c r="A2" s="1">
+        <v>54325</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>31333</v>
+      <c r="A3" s="1">
+        <v>53695</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/CovidBoosterCampusesData.xlsx
+++ b/test/data/CovidBoosterCampusesData.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -363,12 +363,1912 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>54325</v>
+        <v>57457</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <v>55417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>54325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>53695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>53887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>55006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>55093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>14247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>14432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>14636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>14621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>14721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>10819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>10817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>10902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>11955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>11948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>12110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>12226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>30343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>30319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>31279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>31267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>31243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>31177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>31066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>31102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>30772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>30778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>49885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>49678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>29653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>29953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>53728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>53812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>56089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>50044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>50425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>49438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>49492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>49255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>49387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>48712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>51805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>47926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>48772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>48745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>48259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>49015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>49036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>48250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>48628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>48904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>48901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>51727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>51226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>51016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>51010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>28882</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>29221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>29188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>29119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>28972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>28825</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>28798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>28789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>28762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>28735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>28858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>28174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>28207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>28234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>56050</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>10345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>10328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>10326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>10322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>10321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>10236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>10454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>10453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>10449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>10442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>10438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>10432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>10431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>10424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>10422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>10420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>10419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>10417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>10409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>10404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>10399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>10397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>10396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>10395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>10394</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>10392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>10386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>10385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>16305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>16279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>16316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>16361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>16396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>17296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>17491</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>16951</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>16909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>17014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>16990</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>18163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>18058</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>18493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>19081</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>18625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>29404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>29236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>29413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>30070</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>29608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>29605</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>29656</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>10149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>28519</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>28549</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>28510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>28504</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>28501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>28471</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>28588</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>28609</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>28624</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>28660</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>31660</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>31645</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>31627</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>31588</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>31381</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>31507</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>30688</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>30703</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>30409</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>30214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>30298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>30544</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>10309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>10306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>10305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>10303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>10299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>10298</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>10297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>10294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>10291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>10288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>10287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>10286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>10281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>10277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>10258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>10257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>10252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>10249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>10247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>10246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>10243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>10241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>10239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>10381</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>10374</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>10361</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>10358</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>10355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>10349</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>10347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>15286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>15380</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>15368</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>15225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>15268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>15554</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>15679</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>15424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>53713</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>10228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>10224</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>10222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>10213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>10199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>10198</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>10197</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>10191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>10179</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>10178</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>10166</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>10165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>10162</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>15992</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>15923</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>16118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>15983</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>15973</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>15927</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>25846</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>24628</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>22690</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>22447</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>22204</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>21868</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>21787</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>21784</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>21841</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>22537</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>22384</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>20863</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>53314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>52711</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>52684</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>28069</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>28021</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>28039</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>28144</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>28129</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>28117</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>27919</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>27916</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>27913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>27910</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>27895</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>27883</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>27844</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>27832</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>27988</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>27928</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>27925</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>27964</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>26326</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>26305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>27688</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>27811</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>27808</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>10495</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>10492</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>10489</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>10487</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>10486</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>10480</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>10476</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>10472</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>10469</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>10459</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>10458</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>15067</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>15084</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>12607</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>14181</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>14174</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>14138</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>27799</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>20956</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>20953</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>20911</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>20965</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>20665</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>20836</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>20407</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>56173</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>20608</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>20563</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>21739</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>21187</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>21283</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>21274</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>14949</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>14948</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>14981</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>27805</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>27796</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>27766</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>26284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>25771</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>24292</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>25780</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>26038</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>25882</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>10897</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>10892</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>10878</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>10856</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>10854</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>10848</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>10831</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>10826</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>10544</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>10537</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>10535</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>57190</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>10529</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>10528</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>10523</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>10519</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>25714</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>10498</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>10497</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>10151</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>13365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>12698</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>12302</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>12270</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>12448</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>12444</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>12473</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>12555</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>12533</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>56881</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>12522</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>12571</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>14297</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>14258</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>14257</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>14269</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>55102</v>
       </c>
     </row>
   </sheetData>
